--- a/simplified_sha256/finalsummary_simplified_256.xlsx
+++ b/simplified_sha256/finalsummary_simplified_256.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/Desktop/38936390/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092931DA-BEF5-9A43-AA5C-9A7A418A29DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D30F7-F353-B140-8523-D6564048B288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simplified_sha256" sheetId="1" r:id="rId1"/>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1253,28 +1253,28 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>2351</v>
+        <v>1752</v>
       </c>
       <c r="H3" s="4">
-        <v>1249</v>
+        <v>1672</v>
       </c>
       <c r="I3" s="5">
         <f>G3+H3</f>
-        <v>3600</v>
+        <v>3424</v>
       </c>
       <c r="J3" s="6">
-        <v>185.22</v>
+        <v>185.63</v>
       </c>
       <c r="K3" s="4">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="L3" s="7">
         <f>K3/J3</f>
-        <v>1.4793218874851528</v>
+        <v>1.0181543931476593</v>
       </c>
       <c r="M3" s="7">
         <f t="shared" ref="M3" si="0">I3*L3/1000</f>
-        <v>5.3255587949465495</v>
+        <v>3.4861606421375853</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1305,28 +1305,28 @@
         <v>14</v>
       </c>
       <c r="G4" s="4">
-        <v>2351</v>
+        <v>1752</v>
       </c>
       <c r="H4" s="4">
-        <v>1249</v>
+        <v>1672</v>
       </c>
       <c r="I4" s="5">
         <f>G4+H4</f>
-        <v>3600</v>
+        <v>3424</v>
       </c>
       <c r="J4" s="6">
-        <v>185.22</v>
+        <v>185.63</v>
       </c>
       <c r="K4" s="4">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7">
         <f>K4/J4</f>
-        <v>1.4793218874851528</v>
+        <v>1.0181543931476593</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" ref="M4" si="1">I4*L4/1000</f>
-        <v>5.3255587949465495</v>
+        <v>3.4861606421375853</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1357,28 +1357,28 @@
         <v>14</v>
       </c>
       <c r="G5" s="4">
-        <v>2351</v>
+        <v>1752</v>
       </c>
       <c r="H5" s="4">
-        <v>1249</v>
+        <v>1672</v>
       </c>
       <c r="I5" s="5">
         <f>G5+H5</f>
-        <v>3600</v>
+        <v>3424</v>
       </c>
       <c r="J5" s="6">
-        <v>185.22</v>
+        <v>185.63</v>
       </c>
       <c r="K5" s="4">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7">
         <f>K5/J5</f>
-        <v>1.4793218874851528</v>
+        <v>1.0181543931476593</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" ref="M5" si="2">I5*L5/1000</f>
-        <v>5.3255587949465495</v>
+        <v>3.4861606421375853</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
